--- a/HS300_index_enhance-master/factors_data/新沃因子列表.xlsx
+++ b/HS300_index_enhance-master/factors_data/新沃因子列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="271">
   <si>
     <t>NO</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>指标释义</t>
+  </si>
+  <si>
+    <t>tushare状态</t>
   </si>
   <si>
     <t>alpha</t>
@@ -3598,8 +3601,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3611,15 +3614,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3632,16 +3634,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3656,15 +3664,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3678,6 +3680,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3686,33 +3711,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3725,7 +3728,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3740,10 +3743,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3763,13 +3766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3787,6 +3790,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3799,7 +3826,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3811,25 +3868,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,25 +3934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3871,79 +3946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3954,6 +3957,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3972,37 +4029,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4030,40 +4057,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4072,133 +4075,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4902,13 +4905,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2"/>
     <col min="2" max="2" width="26.25" style="2" customWidth="1"/>
@@ -4920,7 +4923,7 @@
     <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4941,6 +4944,9 @@
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:7">
@@ -4948,20 +4954,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:7">
@@ -4969,22 +4975,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:7">
@@ -4992,22 +4998,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:7">
@@ -5015,22 +5021,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5038,22 +5044,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:7">
@@ -5061,22 +5067,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -5084,22 +5090,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:7">
@@ -5107,22 +5113,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5130,22 +5136,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5153,22 +5159,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" ht="112" spans="1:7">
@@ -5176,22 +5182,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5199,22 +5205,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="98" spans="1:7">
@@ -5222,22 +5228,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
@@ -5245,22 +5251,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="154" spans="1:7">
@@ -5268,22 +5274,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:7">
@@ -5291,22 +5297,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
@@ -5314,19 +5320,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5334,22 +5340,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5357,16 +5363,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -5376,22 +5382,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" ht="85.9" customHeight="1" spans="1:7">
@@ -5399,16 +5405,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -5418,22 +5424,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" ht="112" spans="1:7">
@@ -5441,22 +5447,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" ht="98" spans="1:7">
@@ -5464,22 +5470,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:7">
@@ -5487,22 +5493,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" ht="168" spans="1:7">
@@ -5510,22 +5516,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" ht="126" spans="1:7">
@@ -5533,22 +5539,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:7">
@@ -5556,22 +5562,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" ht="154" spans="1:7">
@@ -5579,22 +5585,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5602,22 +5608,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:7">
@@ -5625,22 +5631,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" ht="56" spans="1:7">
@@ -5648,22 +5654,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" ht="98" spans="1:7">
@@ -5671,22 +5677,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" ht="39.6" customHeight="1" spans="1:7">
@@ -5694,19 +5700,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" ht="52.9" customHeight="1" spans="1:7">
@@ -5714,19 +5720,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" ht="50.45" customHeight="1" spans="1:7">
@@ -5734,19 +5740,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" ht="182" spans="1:7">
@@ -5754,22 +5760,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" hidden="1" customHeight="1" spans="1:7">
@@ -5777,22 +5783,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" ht="42" spans="1:7">
@@ -5800,22 +5806,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5823,17 +5829,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" ht="42" spans="1:7">
@@ -5841,22 +5847,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5864,17 +5870,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5882,17 +5888,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" ht="56" spans="1:7">
@@ -5900,22 +5906,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" ht="110.45" customHeight="1" spans="1:7">
@@ -5923,20 +5929,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" ht="112" spans="1:7">
@@ -5944,22 +5950,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" ht="28" spans="1:7">
@@ -5967,22 +5973,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="56" spans="1:7">
@@ -5990,22 +5996,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" ht="112" spans="1:7">
@@ -6013,22 +6019,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6036,17 +6042,17 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" ht="42" spans="1:7">
@@ -6054,22 +6060,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6077,17 +6083,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6095,17 +6101,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:7">
@@ -6113,22 +6119,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" ht="112" spans="1:7">
@@ -6136,22 +6142,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" ht="42" spans="1:7">
@@ -6159,22 +6165,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="140" spans="1:7">
@@ -6182,22 +6188,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" ht="51.6" customHeight="1" spans="1:7">
@@ -6205,20 +6211,20 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6226,19 +6232,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -6247,22 +6253,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" ht="154" spans="1:7">
@@ -6270,22 +6276,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" ht="154" spans="1:7">
@@ -6293,22 +6299,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" ht="266" spans="1:7">
@@ -6316,22 +6322,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6339,17 +6345,17 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6357,22 +6363,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6380,17 +6386,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6398,17 +6404,17 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6416,17 +6422,17 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:7">
@@ -6434,22 +6440,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6457,17 +6463,17 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6475,17 +6481,17 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6493,17 +6499,17 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" ht="28" spans="1:7">
@@ -6511,22 +6517,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6534,17 +6540,17 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6552,17 +6558,17 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6570,17 +6576,17 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" ht="28" spans="1:7">
@@ -6588,22 +6594,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6611,17 +6617,17 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6629,17 +6635,17 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
